--- a/data/successful_identification_records.xlsx
+++ b/data/successful_identification_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,6 +547,1901 @@
         <v>2067165113</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-05-09 14:42:34</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-05-09 15:19:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>赵老师</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2067165</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-05-09 15:26:03</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>赵老师</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2067165</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-05-09 23:02:08</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-05-09 23:11:48</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-05-09 23:16:16</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-05-09 23:22:01</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-05-09 23:36:10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-05-09 23:56:51</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-05-10 14:07:58</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-05-10 19:43:05</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-05-10 20:07:42</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>董佳欣</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2067112</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-05-10 20:08:53</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-05-10 20:09:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>董佳欣</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2067112</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-05-10 20:10:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>董佳欣</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2067112</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-05-10 20:10:49</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-05-10 20:13:01</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-05-10 20:13:33</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>董佳欣</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2067112</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-05-10 20:15:43</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-05-10 20:17:36</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-05-10 20:18:58</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-05-10 20:20:01</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-05-10 20:21:49</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-05-10 20:23:11</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-05-10 20:24:43</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-05-10 20:25:54</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-05-10 20:27:31</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-05-10 20:28:31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-05-10 20:30:10</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-05-10 20:30:52</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-05-10 20:31:46</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-05-10 21:01:34</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-05-10 21:01:41</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>董佳欣</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2067112</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-05-10 21:04:53</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-05-10 21:08:10</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-05-10 21:08:46</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-05-10 21:16:39</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-05-10 21:16:53</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>董佳欣</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>2067112</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-05-10 21:20:18</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-05-10 21:21:26</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-05-10 21:21:58</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-05-10 21:23:45</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-05-10 21:23:53</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>董佳欣</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>2067112</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-05-10 21:26:02</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-05-10 21:27:06</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-05-10 21:41:46</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-05-10 21:43:40</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-05-10 21:45:49</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-05-10 21:48:16</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-05-10 21:49:05</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-05-10 21:50:43</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-05-10 21:51:39</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-05-10 22:13:39</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-05-10 22:15:07</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-05-10 22:16:29</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-05-10 22:19:49</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-05-10 22:20:44</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-05-10 22:22:15</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-05-10 22:23:25</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-05-10 22:24:32</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-05-11 13:02:31</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-05-11 13:02:44</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>董佳欣</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-05-11 13:19:45</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-05-11 13:19:48</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>赵老师</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>2067165114</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-05-11 13:20:04</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>董佳欣</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-05-11 13:22:22</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>董佳欣</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-05-11 13:24:58</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>董佳欣</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-05-11 13:25:39</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-05-11 13:25:40</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>任远远</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-05-11 13:25:46</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>段宝辉</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-05-11 13:28:37</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-05-11 15:45:25</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-05-11 21:31:20</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-05-12 13:03:47</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-05-12 13:03:52</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>董佳欣</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>2067165999</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-05-12 13:04:54</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>董佳欣</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-05-25 18:48:25</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>2067165113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/successful_identification_records.xlsx
+++ b/data/successful_identification_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-04-26 23:46:50</t>
+          <t>2024-04-27 18:47:40</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -500,7 +500,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-04-27 18:47:40</t>
+          <t>2024-04-27 22:39:36</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -518,14 +518,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>2067165113</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-04-27 22:39:36</t>
+          <t>2024-05-09 14:42:34</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -543,14 +550,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>2067165113</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-05-09 14:42:34</t>
+          <t>2024-05-09 15:19:30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -560,7 +574,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>孙樱龙</t>
+          <t>赵老师</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -568,14 +582,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>2067165113</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2067165</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-05-09 15:19:30</t>
+          <t>2024-05-09 15:26:03</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -593,14 +614,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>2067165</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2067165</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-05-09 15:26:03</t>
+          <t>2024-05-09 23:02:08</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -610,7 +638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>赵老师</t>
+          <t>孙樱龙</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -618,14 +646,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>2067165</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-05-09 23:02:08</t>
+          <t>2024-05-09 23:11:48</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -643,14 +678,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>2067165113</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-05-09 23:11:48</t>
+          <t>2024-05-09 23:16:16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -668,14 +710,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>2067165113</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-05-09 23:16:16</t>
+          <t>2024-05-09 23:22:01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -693,14 +742,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E10" t="n">
-        <v>2067165113</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-05-09 23:22:01</t>
+          <t>2024-05-09 23:36:10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -718,14 +774,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E11" t="n">
-        <v>2067165113</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-05-09 23:36:10</t>
+          <t>2024-05-09 23:56:51</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -743,14 +806,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E12" t="n">
-        <v>2067165113</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-05-09 23:56:51</t>
+          <t>2024-05-10 14:07:58</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -768,14 +838,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E13" t="n">
-        <v>2067165113</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-05-10 14:07:58</t>
+          <t>2024-05-10 19:43:05</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -793,14 +870,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v>2067165113</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-05-10 19:43:05</t>
+          <t>2024-05-10 20:07:42</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -810,7 +894,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>孙樱龙</t>
+          <t>董佳欣</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -818,14 +902,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>2067165113</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2067112</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-05-10 20:07:42</t>
+          <t>2024-05-10 20:08:53</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -835,7 +926,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>董佳欣</t>
+          <t>孙樱龙</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -843,14 +934,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>2067112</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-05-10 20:08:53</t>
+          <t>2024-05-10 20:09:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -860,7 +958,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>孙樱龙</t>
+          <t>董佳欣</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -868,14 +966,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>2067165113</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2067112</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-05-10 20:09:00</t>
+          <t>2024-05-10 20:10:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -893,14 +998,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>2067112</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2067112</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-05-10 20:10:00</t>
+          <t>2024-05-10 20:10:49</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -910,7 +1022,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>董佳欣</t>
+          <t>孙樱龙</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -918,14 +1030,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>2067112</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-05-10 20:10:49</t>
+          <t>2024-05-10 20:13:01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -943,14 +1062,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>2067165113</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-05-10 20:13:01</t>
+          <t>2024-05-10 20:13:33</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -960,7 +1086,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>孙樱龙</t>
+          <t>董佳欣</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -968,14 +1094,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>2067165113</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2067112</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-05-10 20:13:33</t>
+          <t>2024-05-10 20:15:43</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -985,7 +1118,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>董佳欣</t>
+          <t>孙樱龙</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -993,14 +1126,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>2067112</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-05-10 20:15:43</t>
+          <t>2024-05-10 20:17:36</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1018,14 +1158,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>2067165113</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-05-10 20:17:36</t>
+          <t>2024-05-10 20:18:58</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1043,14 +1190,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>2067165113</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-05-10 20:18:58</t>
+          <t>2024-05-10 20:20:01</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1068,14 +1222,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>2067165113</v>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-05-10 20:20:01</t>
+          <t>2024-05-10 20:21:49</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1093,14 +1254,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>2067165113</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-05-10 20:21:49</t>
+          <t>2024-05-10 20:23:11</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1118,14 +1286,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>2067165113</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-05-10 20:23:11</t>
+          <t>2024-05-10 20:24:43</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1143,14 +1318,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>2067165113</v>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-05-10 20:24:43</t>
+          <t>2024-05-10 20:25:54</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1168,14 +1350,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>2067165113</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-05-10 20:25:54</t>
+          <t>2024-05-10 20:27:31</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1193,14 +1382,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E30" t="n">
-        <v>2067165113</v>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-05-10 20:27:31</t>
+          <t>2024-05-10 20:28:31</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1218,14 +1414,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E31" t="n">
-        <v>2067165113</v>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-05-10 20:28:31</t>
+          <t>2024-05-10 20:30:10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1243,14 +1446,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E32" t="n">
-        <v>2067165113</v>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-05-10 20:30:10</t>
+          <t>2024-05-10 20:30:52</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1268,14 +1478,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E33" t="n">
-        <v>2067165113</v>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-05-10 20:30:52</t>
+          <t>2024-05-10 20:31:46</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1293,14 +1510,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E34" t="n">
-        <v>2067165113</v>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-05-10 20:31:46</t>
+          <t>2024-05-10 21:01:34</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1318,14 +1542,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E35" t="n">
-        <v>2067165113</v>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-05-10 21:01:34</t>
+          <t>2024-05-10 21:01:41</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1335,7 +1566,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>孙樱龙</t>
+          <t>董佳欣</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1343,14 +1574,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E36" t="n">
-        <v>2067165113</v>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2067112</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-05-10 21:01:41</t>
+          <t>2024-05-10 21:04:53</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1360,7 +1598,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>董佳欣</t>
+          <t>孙樱龙</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1368,14 +1606,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E37" t="n">
-        <v>2067112</v>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-05-10 21:04:53</t>
+          <t>2024-05-10 21:08:10</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1393,14 +1638,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E38" t="n">
-        <v>2067165113</v>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-05-10 21:08:10</t>
+          <t>2024-05-10 21:08:46</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1418,14 +1670,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E39" t="n">
-        <v>2067165113</v>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-05-10 21:08:46</t>
+          <t>2024-05-10 21:16:39</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1443,14 +1702,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E40" t="n">
-        <v>2067165113</v>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-05-10 21:16:39</t>
+          <t>2024-05-10 21:16:53</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1460,7 +1726,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>孙樱龙</t>
+          <t>董佳欣</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1468,14 +1734,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E41" t="n">
-        <v>2067165113</v>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2067112</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2024-05-10 21:16:53</t>
+          <t>2024-05-10 21:20:18</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1485,7 +1758,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>董佳欣</t>
+          <t>孙樱龙</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1493,14 +1766,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E42" t="n">
-        <v>2067112</v>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2024-05-10 21:20:18</t>
+          <t>2024-05-10 21:21:26</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1518,14 +1798,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E43" t="n">
-        <v>2067165113</v>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2024-05-10 21:21:26</t>
+          <t>2024-05-10 21:21:58</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1543,14 +1830,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E44" t="n">
-        <v>2067165113</v>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2024-05-10 21:21:58</t>
+          <t>2024-05-10 21:23:45</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1568,14 +1862,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E45" t="n">
-        <v>2067165113</v>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2024-05-10 21:23:45</t>
+          <t>2024-05-10 21:23:53</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1585,7 +1886,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>孙樱龙</t>
+          <t>董佳欣</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1593,14 +1894,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E46" t="n">
-        <v>2067165113</v>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2067112</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2024-05-10 21:23:53</t>
+          <t>2024-05-10 21:26:02</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1610,7 +1918,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>董佳欣</t>
+          <t>孙樱龙</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1618,14 +1926,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E47" t="n">
-        <v>2067112</v>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2024-05-10 21:26:02</t>
+          <t>2024-05-10 21:27:06</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1643,14 +1958,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E48" t="n">
-        <v>2067165113</v>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2024-05-10 21:27:06</t>
+          <t>2024-05-10 21:41:46</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1660,7 +1982,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>孙樱龙</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1668,14 +1990,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E49" t="n">
-        <v>2067165113</v>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2024-05-10 21:41:46</t>
+          <t>2024-05-10 21:43:40</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1683,19 +2012,31 @@
           <t>摄像头</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E50" t="n">
-        <v>2067165113</v>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2024-05-10 21:43:40</t>
+          <t>2024-05-10 21:45:49</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1703,19 +2044,31 @@
           <t>摄像头</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E51" t="n">
-        <v>2067165113</v>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2024-05-10 21:45:49</t>
+          <t>2024-05-10 21:48:16</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1723,19 +2076,31 @@
           <t>摄像头</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E52" t="n">
-        <v>2067165113</v>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2024-05-10 21:48:16</t>
+          <t>2024-05-10 21:49:05</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1743,19 +2108,31 @@
           <t>摄像头</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E53" t="n">
-        <v>2067165113</v>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2024-05-10 21:49:05</t>
+          <t>2024-05-10 21:51:39</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1763,19 +2140,31 @@
           <t>摄像头</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E54" t="n">
-        <v>2067165113</v>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2024-05-10 21:50:43</t>
+          <t>2024-05-10 22:13:39</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1783,19 +2172,31 @@
           <t>摄像头</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E55" t="n">
-        <v>2067165113</v>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2024-05-10 21:51:39</t>
+          <t>2024-05-10 22:15:07</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1813,14 +2214,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E56" t="n">
-        <v>2067165113</v>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2024-05-10 22:13:39</t>
+          <t>2024-05-10 22:16:29</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1838,14 +2246,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E57" t="n">
-        <v>2067165113</v>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2024-05-10 22:15:07</t>
+          <t>2024-05-10 22:19:49</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1863,14 +2278,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E58" t="n">
-        <v>2067165113</v>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2024-05-10 22:16:29</t>
+          <t>2024-05-10 22:20:44</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1888,14 +2310,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E59" t="n">
-        <v>2067165113</v>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2024-05-10 22:19:49</t>
+          <t>2024-05-10 22:22:15</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1913,14 +2342,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E60" t="n">
-        <v>2067165113</v>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2024-05-10 22:20:44</t>
+          <t>2024-05-10 22:23:25</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1938,14 +2374,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E61" t="n">
-        <v>2067165113</v>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2024-05-10 22:22:15</t>
+          <t>2024-05-10 22:24:32</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1963,14 +2406,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E62" t="n">
-        <v>2067165113</v>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2024-05-10 22:23:25</t>
+          <t>2024-05-11 13:02:31</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1988,14 +2438,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E63" t="n">
-        <v>2067165113</v>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2024-05-10 22:24:32</t>
+          <t>2024-05-11 13:02:44</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2005,7 +2462,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>孙樱龙</t>
+          <t>董佳欣</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2013,14 +2470,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E64" t="n">
-        <v>2067165113</v>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2024-05-11 13:02:31</t>
+          <t>2024-05-11 13:19:45</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2038,14 +2502,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E65" t="n">
-        <v>2067165113</v>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2024-05-11 13:02:44</t>
+          <t>2024-05-11 13:19:48</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2055,7 +2526,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>董佳欣</t>
+          <t>赵老师</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2063,14 +2534,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E66" t="n">
-        <v>2067165113</v>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2067165114</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2024-05-11 13:19:45</t>
+          <t>2024-05-11 13:20:04</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2080,7 +2558,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>孙樱龙</t>
+          <t>董佳欣</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2088,14 +2566,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E67" t="n">
-        <v>2067165113</v>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2024-05-11 13:19:48</t>
+          <t>2024-05-11 13:22:22</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2105,7 +2590,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>赵老师</t>
+          <t>董佳欣</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2113,14 +2598,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E68" t="n">
-        <v>2067165114</v>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2024-05-11 13:20:04</t>
+          <t>2024-05-11 13:24:58</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2138,14 +2630,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E69" t="n">
-        <v>2067165113</v>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2024-05-11 13:22:22</t>
+          <t>2024-05-11 13:25:39</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2155,7 +2654,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>董佳欣</t>
+          <t>孙樱龙</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2163,14 +2662,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E70" t="n">
-        <v>2067165113</v>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2024-05-11 13:24:58</t>
+          <t>2024-05-11 13:25:40</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2180,7 +2686,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>董佳欣</t>
+          <t>任远远</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2188,14 +2694,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E71" t="n">
-        <v>2067165113</v>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2024-05-11 13:25:39</t>
+          <t>2024-05-11 13:25:46</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2205,7 +2718,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>孙樱龙</t>
+          <t>段宝辉</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2213,14 +2726,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E72" t="n">
-        <v>2067165113</v>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2024-05-11 13:25:40</t>
+          <t>2024-05-11 13:28:37</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2230,7 +2750,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>任远远</t>
+          <t>孙樱龙</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2238,14 +2758,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E73" t="n">
-        <v>2067165113</v>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2024-05-11 13:25:46</t>
+          <t>2024-05-11 15:45:25</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2255,7 +2782,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>段宝辉</t>
+          <t>孙樱龙</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2263,14 +2790,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E74" t="n">
-        <v>2067165113</v>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2024-05-11 13:28:37</t>
+          <t>2024-05-11 21:31:20</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2288,14 +2822,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E75" t="n">
-        <v>2067165113</v>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2024-05-11 15:45:25</t>
+          <t>2024-05-12 13:03:47</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2313,14 +2854,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E76" t="n">
-        <v>2067165113</v>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2024-05-11 21:31:20</t>
+          <t>2024-05-12 13:03:52</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2330,7 +2878,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>孙樱龙</t>
+          <t>董佳欣</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2338,14 +2886,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E77" t="n">
-        <v>2067165113</v>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2067165999</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2024-05-12 13:03:47</t>
+          <t>2024-05-12 13:04:54</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2355,7 +2910,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>孙樱龙</t>
+          <t>董佳欣</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2363,14 +2918,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E78" t="n">
-        <v>2067165113</v>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2024-05-12 13:03:52</t>
+          <t>2024-05-25 18:48:25</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2380,7 +2942,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>董佳欣</t>
+          <t>孙樱龙</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2388,14 +2950,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E79" t="n">
-        <v>2067165999</v>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2024-05-12 13:04:54</t>
+          <t>2024-05-26 16:28:17</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2405,7 +2974,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>董佳欣</t>
+          <t>孙樱龙</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2413,14 +2982,21 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E80" t="n">
-        <v>2067165113</v>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2024-05-25 18:48:25</t>
+          <t>2024-05-26 16:30:59</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2438,8 +3014,271 @@
           <t>识别成功</t>
         </is>
       </c>
-      <c r="E81" t="n">
-        <v>2067165113</v>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2067165999</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-05-26 16:30:59</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>董佳欣</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-05-28 17:05:06</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-06-02 19:34:47</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-06-02 19:35:47</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-06-04 15:20:34</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-06-05 14:44:48</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-06-05 14:46:01</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-06-05 15:02:14</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>摄像头</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>孙樱龙</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>识别成功</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2067165113</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
       </c>
     </row>
   </sheetData>
